--- a/Accuracy_of_project.xlsx
+++ b/Accuracy_of_project.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\Desktop\result report merge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhishek\Documents\ANPR\ALDA-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2241C29E-7118-4C3C-8F95-9827DE70B359}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C78D07-03DE-48C7-844F-89651159537A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{20970C8D-4650-8342-8523-2ED24855CFA4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="269">
   <si>
     <t>Actual Number Plate</t>
   </si>
@@ -844,9 +844,6 @@
     <t>NOVUS</t>
   </si>
   <si>
-    <t>ALR486</t>
-  </si>
-  <si>
     <t>DL4CAF4943</t>
   </si>
   <si>
@@ -899,9 +896,6 @@
     </r>
   </si>
   <si>
-    <t>MH14DT8831</t>
-  </si>
-  <si>
     <t>KZ66ZYT</t>
   </si>
   <si>
@@ -1131,13 +1125,7 @@
     <t>car2.jpg</t>
   </si>
   <si>
-    <t>car4.jpeg</t>
-  </si>
-  <si>
     <t>car8.jpeg</t>
-  </si>
-  <si>
-    <t>car11.jpeg</t>
   </si>
   <si>
     <t>car12.jpg</t>
@@ -1843,24 +1831,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD0979D-4E5D-AE4F-9A93-4DD4DE0AC160}">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:XFD76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.58203125" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="13.58203125" customWidth="1"/>
-    <col min="5" max="5" width="15.4140625" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
     <col min="7" max="7" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="46.5">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="47.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -2943,7 +2931,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>175</v>
@@ -2966,7 +2954,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>178</v>
@@ -2987,357 +2975,369 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="23" customFormat="1">
-      <c r="A50" s="23" t="s">
+    <row r="50" spans="1:7">
+      <c r="A50" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E50" s="13">
+        <v>10</v>
+      </c>
+      <c r="F50" s="15">
+        <v>10</v>
+      </c>
+      <c r="G50" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="23" customFormat="1">
+      <c r="A51" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="E51" s="23">
+        <v>7</v>
+      </c>
+      <c r="F51" s="23">
+        <v>0</v>
+      </c>
+      <c r="G51" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="B50" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="E50" s="23">
-        <v>0</v>
-      </c>
-      <c r="F50" s="23">
-        <v>0</v>
-      </c>
-      <c r="G50" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="10" t="s">
+      <c r="B52" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E52" s="13">
+        <v>9</v>
+      </c>
+      <c r="F52" s="15">
+        <v>9</v>
+      </c>
+      <c r="G52" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E51" s="13">
-        <v>10</v>
-      </c>
-      <c r="F51" s="15">
-        <v>10</v>
-      </c>
-      <c r="G51" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="23" customFormat="1">
-      <c r="A52" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E52" s="23">
-        <v>0</v>
-      </c>
-      <c r="F52" s="23">
-        <v>0</v>
-      </c>
-      <c r="G52" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="23" customFormat="1">
-      <c r="A53" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="E53" s="23">
-        <v>7</v>
-      </c>
-      <c r="F53" s="23">
-        <v>0</v>
-      </c>
-      <c r="G53" s="23">
+      <c r="B53" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E53" s="13">
+        <v>5</v>
+      </c>
+      <c r="F53" s="15">
+        <v>0</v>
+      </c>
+      <c r="G53" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E54" s="13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F54" s="15">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G54" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E55" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F55" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G55" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>191</v>
+        <v>68</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E56" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F56" s="15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G56" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E57" s="13">
         <v>6</v>
       </c>
       <c r="F57" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G57" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E58" s="13">
+        <v>7</v>
+      </c>
+      <c r="F58" s="15">
+        <v>7</v>
+      </c>
+      <c r="G58" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="B59" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="B58" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="E58" s="13">
-        <v>8</v>
-      </c>
-      <c r="F58" s="15">
-        <v>7</v>
-      </c>
-      <c r="G58" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="10" t="s">
+      <c r="C59" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="E59" s="13">
-        <v>6</v>
-      </c>
-      <c r="F59" s="15">
-        <v>6</v>
-      </c>
-      <c r="G59" s="14">
-        <v>6</v>
+      <c r="D59" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="E59" s="17">
+        <v>5</v>
+      </c>
+      <c r="F59" s="19">
+        <v>4</v>
+      </c>
+      <c r="G59" s="18">
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="E60" s="13">
-        <v>7</v>
-      </c>
-      <c r="F60" s="15">
-        <v>7</v>
-      </c>
-      <c r="G60" s="14">
-        <v>5</v>
+      <c r="A60" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="E60" s="17">
+        <v>7</v>
+      </c>
+      <c r="F60" s="19">
+        <v>7</v>
+      </c>
+      <c r="G60" s="18">
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="16" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E61" s="17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F61" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G61" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="E62" s="17">
-        <v>7</v>
-      </c>
-      <c r="F62" s="19">
-        <v>7</v>
-      </c>
-      <c r="G62" s="18">
-        <v>3</v>
+    <row r="62" spans="1:7" s="23" customFormat="1">
+      <c r="A62" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="E62" s="23">
+        <v>4</v>
+      </c>
+      <c r="F62" s="23">
+        <v>0</v>
+      </c>
+      <c r="G62" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="D63" s="16" t="s">
+      <c r="A63" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="E63" s="17">
+      <c r="B63" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="E63" s="20">
+        <v>7</v>
+      </c>
+      <c r="F63" s="20">
         <v>6</v>
       </c>
-      <c r="F63" s="19">
-        <v>5</v>
-      </c>
-      <c r="G63" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" s="23" customFormat="1">
-      <c r="A64" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="B64" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="C64" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="D64" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="E64" s="23">
-        <v>4</v>
-      </c>
-      <c r="F64" s="23">
-        <v>0</v>
-      </c>
-      <c r="G64" s="23">
-        <v>0</v>
+      <c r="G63" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="E64" s="20">
+        <v>7</v>
+      </c>
+      <c r="F64" s="20">
+        <v>7</v>
+      </c>
+      <c r="G64" s="20">
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="20" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E65" s="20">
         <v>7</v>
       </c>
       <c r="F65" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G65" s="20">
         <v>1</v>
@@ -3345,114 +3345,114 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="20" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E66" s="20">
         <v>7</v>
       </c>
       <c r="F66" s="20">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G66" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="E67" s="20">
-        <v>7</v>
-      </c>
-      <c r="F67" s="20">
-        <v>7</v>
-      </c>
-      <c r="G67" s="20">
         <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="23" customFormat="1">
+      <c r="A67" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="E67" s="23">
+        <v>7</v>
+      </c>
+      <c r="F67" s="23">
+        <v>0</v>
+      </c>
+      <c r="G67" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="20" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E68" s="20">
         <v>7</v>
       </c>
       <c r="F68" s="20">
+        <v>5</v>
+      </c>
+      <c r="G68" s="20">
         <v>4</v>
       </c>
-      <c r="G68" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" s="23" customFormat="1">
-      <c r="A69" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="B69" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="C69" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="D69" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="E69" s="23">
-        <v>7</v>
-      </c>
-      <c r="F69" s="23">
-        <v>0</v>
-      </c>
-      <c r="G69" s="23">
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="C69" s="20">
+        <v>894</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="E69" s="20">
+        <v>7</v>
+      </c>
+      <c r="F69" s="20">
+        <v>3</v>
+      </c>
+      <c r="G69" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="20" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E70" s="20">
         <v>7</v>
       </c>
       <c r="F70" s="20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G70" s="20">
         <v>4</v>
@@ -3460,153 +3460,107 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="20" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="C71" s="20">
-        <v>894</v>
+        <v>256</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>257</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E71" s="20">
         <v>7</v>
       </c>
       <c r="F71" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G71" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="20" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E72" s="20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F72" s="20">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G72" s="20">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="20" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E73" s="20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F73" s="20">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G73" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="23" customFormat="1">
+      <c r="A74" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="B74" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D74" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="E74" s="23">
+        <v>7</v>
+      </c>
+      <c r="F74" s="23">
+        <v>0</v>
+      </c>
+      <c r="G74" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="D74" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="E74" s="20">
-        <v>6</v>
-      </c>
-      <c r="F74" s="20">
-        <v>3</v>
-      </c>
-      <c r="G74" s="20">
-        <v>0</v>
-      </c>
-    </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="E75" s="20">
-        <v>8</v>
-      </c>
-      <c r="F75" s="20">
-        <v>8</v>
-      </c>
-      <c r="G75" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" s="23" customFormat="1">
-      <c r="A76" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="B76" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="C76" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="D76" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="E76" s="23">
-        <v>7</v>
-      </c>
-      <c r="F76" s="23">
-        <v>0</v>
-      </c>
-      <c r="G76" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="E77">
-        <f xml:space="preserve"> SUM(E2:E76)</f>
+      <c r="E75">
+        <f>SUM(E2:E74)</f>
         <v>515</v>
       </c>
-      <c r="F77">
-        <f xml:space="preserve"> SUM(F2:F76)</f>
+      <c r="F75">
+        <f xml:space="preserve"> SUM(F2:F74)</f>
         <v>309</v>
       </c>
-      <c r="G77">
-        <f xml:space="preserve"> SUM(G2:G76)</f>
+      <c r="G75">
+        <f xml:space="preserve"> SUM(G2:G74)</f>
         <v>172</v>
       </c>
     </row>
